--- a/infoCustomer.xlsx
+++ b/infoCustomer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoand2/AutoTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoand2/CheckOutProduct/CheckOutProduct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD78350-DA44-494F-B375-36A3D570F48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602E84A7-B79F-2740-9628-B6C6B20EFD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>First nName</t>
-  </si>
-  <si>
     <t>Zip Code</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Hoa</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -369,28 +369,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>1234</v>
